--- a/ipl/Delhi Capitals/Lalit Yadav.xlsx
+++ b/ipl/Delhi Capitals/Lalit Yadav.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,9 +489,154 @@
         <v>7th Match (N), Wankhede, April 15, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Lalit Yadav</v>
+      </c>
+      <c r="B4" t="str">
+        <v>22</v>
+      </c>
+      <c r="C4" t="str">
+        <v>25</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>88.00</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Capitals won by 6 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="I4" t="str">
+        <v>13th Match (N), Chennai, April 20, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Lalit Yadav</v>
+      </c>
+      <c r="B5" t="str">
+        <v>14</v>
+      </c>
+      <c r="C5" t="str">
+        <v>15</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>93.33</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Capitals won by 33 runs</v>
+      </c>
+      <c r="I5" t="str">
+        <v>36th Match, Abu Dhabi, September 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Lalit Yadav</v>
+      </c>
+      <c r="B6" t="str">
+        <v>12</v>
+      </c>
+      <c r="C6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>200.00</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Capitals won by 6 wickets (with 10 balls remaining)</v>
+      </c>
+      <c r="I6" t="str">
+        <v>11th Match (N), Wankhede, April 18, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Lalit Yadav</v>
+      </c>
+      <c r="B7" t="str">
+        <v>20</v>
+      </c>
+      <c r="C7" t="str">
+        <v>24</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>83.33</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Royals won by 3 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>7th Match (N), Wankhede, April 15, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Lalit Yadav</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H8" t="str">
+        <v>KKR won by 3 wickets (with 10 balls remaining)</v>
+      </c>
+      <c r="I8" t="str">
+        <v>41st Match, Sharjah, September 28, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
   </ignoredErrors>
 </worksheet>
 </file>